--- a/Q&A sheet.xlsx
+++ b/Q&A sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thnrg\Documents\Nhap Mon KT Phan Mem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1106F38B-C0B9-4516-ADDC-C0159B62A2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89501818-1164-43ED-B112-02A6E1B15462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="74">
   <si>
     <t>Document</t>
   </si>
@@ -54,21 +54,9 @@
     <t>Owner</t>
   </si>
   <si>
-    <t>Chúng tôi thấy bạn có thêm tính năng để Admin có thể đổi thông tin của tài khoản người dùng, có thể cụ thể hơn về những thứ Admin có thể sửa đổi không?</t>
-  </si>
-  <si>
     <t>Open</t>
   </si>
   <si>
-    <t>Admin chỉ có thể xóa tài khoản và reset mật khẩu của người dùng.</t>
-  </si>
-  <si>
-    <t>Vì sao và khi nào admin reset mật khẩu người dùng?</t>
-  </si>
-  <si>
-    <t>Nếu chỉ liên hệ với admin thì làm sao admin chứng thực được đúng là người đó để reset mật khẩu?</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -90,12 +78,6 @@
     <t>Tên người dùng, Email, Mật khẩu</t>
   </si>
   <si>
-    <t>Admin reset mật khẩu người dùng khi người dùng liên hệ với hệ thống qua hotline về vấn đề quên mật khẩu tài khoản, hoặc bấm nút quên mật khẩu ở màn hình login thì admin sẽ reset</t>
-  </si>
-  <si>
-    <t>Admin sẽ gửi email qua email đã lưu của tài khoản đấy để xác nhận đổi mật khẩu, chỉ khi email đấy được xác nhận thì admin mới reset mật khẩu</t>
-  </si>
-  <si>
     <t>Thông tin cá nhân có thể thêm vào gồm những gì?</t>
   </si>
   <si>
@@ -183,9 +165,6 @@
     <t>Các tính năng trong menu của admin được xếp như nào?</t>
   </si>
   <si>
-    <t xml:space="preserve">Đăng nhập, sửa thông tin cá nhân đi với nhau, các tính năng quản lý </t>
-  </si>
-  <si>
     <t>Thay đổi thông tin cá nhân cần phải nhập mật khẩu không?</t>
   </si>
   <si>
@@ -270,28 +249,13 @@
     <t>Không, tôi chỉ quản lý Admin thôi, còn lại thì Admin của tôi sẽ làm, chỉ khi Admin đấy không làm được thì tôi phải xóa tài khoản của họ.</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column4</t>
-  </si>
-  <si>
-    <t>Column5</t>
-  </si>
-  <si>
-    <t>Column6</t>
-  </si>
-  <si>
-    <t>Column7</t>
-  </si>
-  <si>
-    <t>Column8</t>
+    <t>Người dùng gửi yêu cầu reset, admin gửi mail xác nhận tới tài khoản email đã liên kết, người dùng xác nhận, lúc đấy admin reset và gửi mail khác yêu cầu người dùng đăng nhập và đổi mật khẩu mới sớm nhất có thể</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Các tính năng quản lý sản phẩm, danh mục nằm trên toolbar ở mục quản lý, các loại thống kê nằm ở mục thống kê, đăng xuất, đổi thông tin, ban hành tài khoản Nhân viên nằm ở mục tài khoản.</t>
   </si>
 </sst>
 </file>
@@ -365,13 +329,13 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -391,17 +355,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{039430F5-7C9B-452A-A889-23C87E5020F6}" name="Table1" displayName="Table1" ref="A1:H32" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:H32" xr:uid="{039430F5-7C9B-452A-A889-23C87E5020F6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{039430F5-7C9B-452A-A889-23C87E5020F6}" name="Table1" displayName="Table1" ref="A1:H28" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H28" xr:uid="{039430F5-7C9B-452A-A889-23C87E5020F6}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A272D055-FDAA-4D31-A5D3-AD976001D957}" name="Column1" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{2CF5E44F-014A-4635-93ED-94E27DCCF585}" name="Column2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{6EE2FAE9-30D0-4280-A16F-81956B0858D4}" name="Column3" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{3B371963-2544-4567-819A-E2DE70B73390}" name="Column4" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{A8C215B7-A5DB-4CC6-99F2-60D980ED831F}" name="Column5" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{B6698946-FA0B-41EC-B7DE-499BFF122734}" name="Column6" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{E880219D-CCD5-41CE-AD11-E6593B8E8E3A}" name="Column7" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{A8F11192-0486-42D5-A861-AF9EBF99F259}" name="Column8" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A272D055-FDAA-4D31-A5D3-AD976001D957}" name="Document" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{2CF5E44F-014A-4635-93ED-94E27DCCF585}" name="Doc Version" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{6EE2FAE9-30D0-4280-A16F-81956B0858D4}" name="Section/Screen" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{3B371963-2544-4567-819A-E2DE70B73390}" name="Comment/Question" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{A8C215B7-A5DB-4CC6-99F2-60D980ED831F}" name="Answer" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{B6698946-FA0B-41EC-B7DE-499BFF122734}" name="Status" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{E880219D-CCD5-41CE-AD11-E6593B8E8E3A}" name="Owner" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{A8F11192-0486-42D5-A861-AF9EBF99F259}" name="Priority" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -670,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,562 +653,492 @@
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="28.8" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Q&A sheet.xlsx
+++ b/Q&A sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thnrg\Documents\Nhap Mon KT Phan Mem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89501818-1164-43ED-B112-02A6E1B15462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFFE909-50D1-4265-9231-F197EDEAF295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="85">
   <si>
     <t>Document</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Vì tôi chỉ muốn có một app duy nhất nên hãy làm trên cùng một trang đăng nhập</t>
   </si>
   <si>
-    <t>Thông tin cá nhân cần phải có khi mới đăng ký tài khoản là gì?</t>
-  </si>
-  <si>
     <t>Tên người dùng, Email, Mật khẩu</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>Order Management</t>
   </si>
   <si>
-    <t>Việc tách ra này có tác dụng gì?</t>
-  </si>
-  <si>
     <t>Đơn hàng sẽ có những trạng thái nào?</t>
   </si>
   <si>
@@ -105,15 +99,6 @@
     <t>Cụ thể tình trạng của đơn qua từng giai đoạn là như thế nào?</t>
   </si>
   <si>
-    <t>Đặt hàng, thanh toán xong -&gt; mới tiếp nhận, nhân viên đóng gói xong -&gt; đã đóng gói, đã đưa cho đơn vị vận chuyển -&gt; đang ship, giao thành công -&gt; hoàn thành</t>
-  </si>
-  <si>
-    <t>Các đơn có trạng thái "mới tiếp nhận", "đã đóng gói", "đang ship" chung màn hình quản lý đơn</t>
-  </si>
-  <si>
-    <t>Để nhân viên quản lý các đơn chưa hoàn thành</t>
-  </si>
-  <si>
     <t>Main Menu</t>
   </si>
   <si>
@@ -183,9 +168,6 @@
     <t>Mật khẩu cũ, mật khẩu mới, và xác nhận lại mật khẩu mới tránh gõ nhầm</t>
   </si>
   <si>
-    <t>Có cần nhập lại mật khẩu 2 lần để tránh gõ nhầm mật khẩu khi đăng ký không?</t>
-  </si>
-  <si>
     <t>Register</t>
   </si>
   <si>
@@ -222,27 +204,12 @@
     <t>Không, màn hình chính sẽ là đăng nhập</t>
   </si>
   <si>
-    <t>Vậy bên dưới màn hình đăng nhập sẽ có nút chức năng đổi sang cửa sổ đăng ký dành cho các người dùng mới?</t>
-  </si>
-  <si>
     <t>Được</t>
   </si>
   <si>
-    <t>Các tài khoản Nhân viên và Admin là do ai cấp?</t>
-  </si>
-  <si>
     <t>Nhân viên là do Admin cấp, Admin là do tôi cấp</t>
   </si>
   <si>
-    <t>Để cấp tài khoản mà không cần giao diện là một quá trình khó khăn và sẽ tạo lỗ hổng bảo mật, chúng tôi đề xuất anh có một tài khoản mặc định được tạo sẵn trong chương trình để anh có thể cấp quyền cho các tài khoản Admin được chứ?</t>
-  </si>
-  <si>
-    <t>Được, tôi muốn có một màn hình riêng để có thể quản lý các Admin</t>
-  </si>
-  <si>
-    <t>Permission</t>
-  </si>
-  <si>
     <t>Ngoài việc quản lý các Admin ra thì tài khoản của anh có quyền hạn và chức năng gì khác không?</t>
   </si>
   <si>
@@ -256,6 +223,72 @@
   </si>
   <si>
     <t>Các tính năng quản lý sản phẩm, danh mục nằm trên toolbar ở mục quản lý, các loại thống kê nằm ở mục thống kê, đăng xuất, đổi thông tin, ban hành tài khoản Nhân viên nằm ở mục tài khoản.</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Có những ràng buộc gì cho các thông tin người dùng nhập vào khi đăng nhập và đăng ký?</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>Mật khẩu phải có từ 8 ký tự, có ít nhất một ký tự đặc biệt, tối đa 32 ký tự. Tên người dùng tối đa 50 ký tự, email phải có đuôi hợp lệ</t>
+  </si>
+  <si>
+    <t>Nguyễn Quốc Minh</t>
+  </si>
+  <si>
+    <t>Đặt hàng, thanh toán xong -&gt; mới tiếp nhận; nhân viên đóng gói xong -&gt; đã đóng gói; đã đưa cho đơn vị vận chuyển -&gt; đang ship; giao thành công -&gt; hoàn thành</t>
+  </si>
+  <si>
+    <t>Các đơn có trạng thái "mới tiếp nhận", "đã đóng gói", "đang ship" chung màn hình quản lý đơn cho nhân viên, còn đối với admin, nó sẽ nằm trong mục quản lý đơn, các đơn chưa hoàn thành được đưa lên đầu, đơn đã hoàn thành nằm dưới</t>
+  </si>
+  <si>
+    <t>Vậy bên dưới màn hình đăng nhập sẽ có nút chức năng đổi sang cửa sổ đăng ký dành cho các người dùng mới có hợp lý không, có bổ sung gì khác không?</t>
+  </si>
+  <si>
+    <t>Có, tôi xác nhận đồng ý</t>
+  </si>
+  <si>
+    <t>Cụ thể nút chức năng này sẽ nằm ở đâu?</t>
+  </si>
+  <si>
+    <t>Những thông tin tài khoản nào bắt buộc phải có để đăng ký?</t>
+  </si>
+  <si>
+    <t>Nằm dưới ô nhập mật khẩu trong màn hình đăng nhập</t>
+  </si>
+  <si>
+    <t>Internal Roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các tài khoản Admin và Nhân viên được </t>
+  </si>
+  <si>
+    <t>Tài khoản của anh sẽ được gọi là System Admin có hợp lý không?</t>
+  </si>
+  <si>
+    <t>Màn hình đăng nhập sẽ gồm các thành phần nào và được sắp xếp như nào?</t>
+  </si>
+  <si>
+    <t>Trên cùng là tiêu đề, xong đến ô nhập tên hoặc email người dùng, dưới đó là mật khẩu người dùng, đến nút chuyển sang màn hình đăng ký và cuối cùng là nút login</t>
+  </si>
+  <si>
+    <t>Có một màn hình riêng cho Server Admin quản lý các tài khoản Admin hợp lý chứ?</t>
+  </si>
+  <si>
+    <t>Có, tôi cần màn hình này thể hiện thông tin chi tiết của admin.</t>
+  </si>
+  <si>
+    <t>Cần nhập lại mật khẩu 2 lần để tránh gõ nhầm mật khẩu khi đăng ký có hợp lý không?</t>
+  </si>
+  <si>
+    <t>Không cần thay đổi, tôi đã thấy hợp lý rồi</t>
+  </si>
+  <si>
+    <t>Trình tự trong màn hình đăng ký sẽ theo thứ tự: tiêu đề; Tên người dùng; Email; Mật khẩu; Nhập lại mật khẩu; nút Register, thứ tự này có cần thay đổi không?</t>
   </si>
 </sst>
 </file>
@@ -355,8 +388,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{039430F5-7C9B-452A-A889-23C87E5020F6}" name="Table1" displayName="Table1" ref="A1:H28" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H28" xr:uid="{039430F5-7C9B-452A-A889-23C87E5020F6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{039430F5-7C9B-452A-A889-23C87E5020F6}" name="Table1" displayName="Table1" ref="A1:H32" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H32" xr:uid="{039430F5-7C9B-452A-A889-23C87E5020F6}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A272D055-FDAA-4D31-A5D3-AD976001D957}" name="Document" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{2CF5E44F-014A-4635-93ED-94E27DCCF585}" name="Doc Version" dataDxfId="6"/>
@@ -634,17 +667,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="59.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="62.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
@@ -670,7 +703,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -687,13 +720,16 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -704,16 +740,19 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -721,13 +760,16 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -738,16 +780,19 @@
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -755,13 +800,16 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -772,115 +820,133 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G8" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="G9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G11" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G12" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -888,16 +954,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -905,16 +974,19 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -922,223 +994,341 @@
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="F27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="F28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="28.8" x14ac:dyDescent="0.3"/>
+      <c r="E32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
